--- a/docs/fattibilità/gpn_gantt.xlsx
+++ b/docs/fattibilità/gpn_gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive - ISTITUTO COMPRENSIVO VERTOVA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive - ISTITUTO COMPRENSIVO VERTOVA\Documenti\progettoGPN\docs\fattibilità\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>TASK</t>
   </si>
@@ -166,6 +166,21 @@
   </si>
   <si>
     <t>excel</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>GP</t>
   </si>
 </sst>
 </file>
@@ -177,7 +192,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-410]"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +258,14 @@
     </font>
     <font>
       <sz val="25"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -484,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,6 +663,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,19 +687,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AU39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1068,78 +1097,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:47" ht="27" customHeight="1">
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="3:47">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="66"/>
       <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="62" t="str">
+      <c r="I3" s="60" t="str">
         <f>TEXT(I5,"MMM")</f>
         <v>Oct</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="62" t="str">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="60" t="str">
         <f>TEXT(M5,"MMM")</f>
         <v>Nov</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="62" t="str">
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="60" t="str">
         <f>TEXT(Q5,"MMM")</f>
         <v>Dec</v>
       </c>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="62" t="str">
+      <c r="V3" s="60" t="str">
         <f>TEXT(V5,"MMM")</f>
         <v>Jan</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="62" t="str">
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="60" t="str">
         <f>TEXT(Z5,"MMM")</f>
         <v>Feb</v>
       </c>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="62" t="str">
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="60" t="str">
         <f>TEXT(AD5,"MMM")</f>
         <v>Mar</v>
       </c>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="62" t="str">
+      <c r="AI3" s="60" t="str">
         <f>TEXT(AI5,"MMM")</f>
         <v>Apr</v>
       </c>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="62" t="str">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="60" t="str">
         <f>TEXT(AM5,"MMM")</f>
         <v>May</v>
       </c>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="64"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="62"/>
       <c r="AQ3" s="6" t="str">
         <f>TEXT(AQ5,"MMM")</f>
         <v>Jun</v>
@@ -1486,7 +1515,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E8" s="27">
         <v>0.6</v>
@@ -1554,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E9" s="27">
         <v>0.4</v>
@@ -1805,7 +1834,9 @@
       <c r="C13" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>45</v>
+      </c>
       <c r="E13" s="58">
         <v>0.5</v>
       </c>
@@ -1868,14 +1899,16 @@
       <c r="C14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="58">
         <v>0.7</v>
       </c>
       <c r="F14" s="30">
-        <v>45947</v>
-      </c>
-      <c r="G14" s="66">
+        <v>45948</v>
+      </c>
+      <c r="G14" s="59">
         <v>45953</v>
       </c>
       <c r="H14" s="24"/>
@@ -1931,7 +1964,9 @@
       <c r="C15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E15" s="58">
         <v>0.65</v>
       </c>
@@ -1994,7 +2029,7 @@
       <c r="C16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="33"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="26"/>
       <c r="F16" s="30">
         <v>45962</v>
@@ -2113,7 +2148,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="26"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="30">
         <v>45945</v>
       </c>
@@ -2676,11 +2711,11 @@
       <c r="C30" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
       <c r="AS30" s="52">
         <f>SUM(AS8:AS26)</f>
         <v>86</v>
@@ -2696,30 +2731,30 @@
     </row>
     <row r="31" spans="3:47">
       <c r="C31" s="43"/>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
     </row>
     <row r="32" spans="3:47">
       <c r="C32" s="43"/>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="43"/>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -2792,6 +2827,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="D30:F30"/>
@@ -2801,11 +2841,6 @@
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E8:E26">

--- a/docs/fattibilità/gpn_gantt.xlsx
+++ b/docs/fattibilità/gpn_gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive - ISTITUTO COMPRENSIVO VERTOVA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D1AAE-1B02-4D47-BC7E-B34306CD206E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="task_progress" localSheetId="0">Sheet1!$E1</definedName>
     <definedName name="task_start" localSheetId="0">Sheet1!$F1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>TASK</t>
   </si>
@@ -132,18 +131,27 @@
   </si>
   <si>
     <t>Scambio Schemi Progetto GPN</t>
+  </si>
+  <si>
+    <t>creazione AI</t>
+  </si>
+  <si>
+    <t>.js</t>
+  </si>
+  <si>
+    <t>PG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmmmm;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-410]"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +221,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -451,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,36 +621,37 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1019,103 +1034,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AU39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AU40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="91" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="1" customWidth="1"/>
-    <col min="10" max="43" width="6.75" style="1" customWidth="1"/>
-    <col min="45" max="49" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" customWidth="1"/>
+    <col min="9" max="9" width="5.59765625" style="1" customWidth="1"/>
+    <col min="10" max="43" width="6.69921875" style="1" customWidth="1"/>
+    <col min="45" max="49" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:47" ht="27" customHeight="1">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="3:47">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="67"/>
       <c r="H3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="63" t="str">
+      <c r="I3" s="61" t="str">
         <f>TEXT(I5,"MMM")</f>
         <v>ott</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="63" t="str">
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="61" t="str">
         <f>TEXT(M5,"MMM")</f>
         <v>nov</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="63" t="str">
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="61" t="str">
         <f>TEXT(Q5,"MMM")</f>
         <v>dic</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="63" t="str">
+      <c r="V3" s="61" t="str">
         <f>TEXT(V5,"MMM")</f>
         <v>gen</v>
       </c>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="63" t="str">
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="61" t="str">
         <f>TEXT(Z5,"MMM")</f>
         <v>feb</v>
       </c>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="63" t="str">
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="str">
         <f>TEXT(AD5,"MMM")</f>
         <v>mar</v>
       </c>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="63" t="str">
+      <c r="AI3" s="61" t="str">
         <f>TEXT(AI5,"MMM")</f>
         <v>apr</v>
       </c>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="63" t="str">
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="61" t="str">
         <f>TEXT(AM5,"MMM")</f>
         <v>mag</v>
       </c>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="65"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="63"/>
       <c r="AQ3" s="5" t="str">
         <f>TEXT(AQ5,"MMM")</f>
         <v>giu</v>
@@ -1406,7 +1421,7 @@
       <c r="AT6" s="53"/>
       <c r="AU6" s="55"/>
     </row>
-    <row r="7" spans="3:47" ht="25.15" customHeight="1">
+    <row r="7" spans="3:47" ht="25.2" customHeight="1">
       <c r="C7" s="33" t="s">
         <v>30</v>
       </c>
@@ -1507,15 +1522,15 @@
       <c r="AP8" s="24"/>
       <c r="AQ8" s="22"/>
       <c r="AS8" s="7">
-        <f t="shared" ref="AS8:AS26" si="0">INT((G8-F8)/7)</f>
+        <f t="shared" ref="AS8:AS27" si="0">INT((G8-F8)/7)</f>
         <v>1</v>
       </c>
       <c r="AT8" s="53">
-        <f>AS8*$D$36</f>
+        <f>AS8*$D$37</f>
         <v>0</v>
       </c>
       <c r="AU8" s="55">
-        <f>AT8*$D$37</f>
+        <f>AT8*$D$38</f>
         <v>0</v>
       </c>
     </row>
@@ -1527,13 +1542,13 @@
         <v>22</v>
       </c>
       <c r="E9" s="26">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="29">
         <v>45955</v>
       </c>
       <c r="G9" s="29">
-        <v>45961</v>
+        <v>46060</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="24"/>
@@ -1573,14 +1588,14 @@
       <c r="AQ9" s="22"/>
       <c r="AS9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT9" s="53">
-        <f t="shared" ref="AT9:AT26" si="1">AS9*$D$36</f>
+        <f t="shared" ref="AT9:AT27" si="1">AS9*$D$37</f>
         <v>0</v>
       </c>
       <c r="AU9" s="55">
-        <f t="shared" ref="AU9:AU26" si="2">AT9*$D$37</f>
+        <f t="shared" ref="AU9:AU27" si="2">AT9*$D$38</f>
         <v>0</v>
       </c>
     </row>
@@ -1600,7 +1615,7 @@
       <c r="G10" s="29">
         <v>45972</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -1663,7 +1678,7 @@
         <v>45936</v>
       </c>
       <c r="G11" s="29">
-        <v>40857</v>
+        <v>45971</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" s="24"/>
@@ -1703,7 +1718,7 @@
       <c r="AQ11" s="22"/>
       <c r="AS11" s="7">
         <f t="shared" si="0"/>
-        <v>-726</v>
+        <v>5</v>
       </c>
       <c r="AT11" s="53">
         <f t="shared" si="1"/>
@@ -1714,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:47" ht="25.15" customHeight="1">
+    <row r="12" spans="3:47" ht="25.2" customHeight="1">
       <c r="C12" s="34" t="s">
         <v>15</v>
       </c>
@@ -1779,13 +1794,13 @@
         <v>24</v>
       </c>
       <c r="E13" s="57">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F13" s="29">
         <v>45945</v>
       </c>
       <c r="G13" s="29">
-        <v>46011</v>
+        <v>46060</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
@@ -1825,7 +1840,7 @@
       <c r="AQ13" s="22"/>
       <c r="AS13" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AT13" s="53">
         <f t="shared" si="1"/>
@@ -1843,7 +1858,7 @@
       <c r="D14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="59">
         <v>0.7</v>
       </c>
       <c r="F14" s="29">
@@ -1912,10 +1927,10 @@
         <v>0.65</v>
       </c>
       <c r="F15" s="29">
+        <v>45953</v>
+      </c>
+      <c r="G15" s="29">
         <v>45978</v>
-      </c>
-      <c r="G15" s="29">
-        <v>45953</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
@@ -1955,7 +1970,7 @@
       <c r="AQ15" s="22"/>
       <c r="AS15" s="7">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="AT15" s="53">
         <f t="shared" si="1"/>
@@ -1967,11 +1982,21 @@
       </c>
     </row>
     <row r="16" spans="3:47" ht="21" customHeight="1">
-      <c r="C16" s="32"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="C16" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="29">
+        <v>46055</v>
+      </c>
+      <c r="G16" s="29">
+        <v>46060</v>
+      </c>
       <c r="H16" s="23"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
@@ -2021,14 +2046,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:47" ht="25.15" customHeight="1">
-      <c r="C17" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+    <row r="17" spans="3:47" ht="21" customHeight="1">
+      <c r="C17" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="29">
+        <v>46048</v>
+      </c>
+      <c r="G17" s="29">
+        <v>46060</v>
+      </c>
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -2067,10 +2100,10 @@
       <c r="AQ17" s="22"/>
       <c r="AS17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="53">
-        <f t="shared" si="1"/>
+        <f>AS17*$D$37</f>
         <v>0</v>
       </c>
       <c r="AU17" s="55">
@@ -2078,22 +2111,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:47" ht="21" customHeight="1">
-      <c r="C18" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="66">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="29">
-        <v>45971</v>
-      </c>
-      <c r="G18" s="29">
-        <v>45973</v>
-      </c>
+    <row r="18" spans="3:47" ht="25.2" customHeight="1">
+      <c r="C18" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -2144,11 +2169,21 @@
       </c>
     </row>
     <row r="19" spans="3:47" ht="21" customHeight="1">
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="C19" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="29">
+        <v>46048</v>
+      </c>
+      <c r="G19" s="29">
+        <v>46055</v>
+      </c>
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
@@ -2187,7 +2222,7 @@
       <c r="AQ19" s="22"/>
       <c r="AS19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="53">
         <f t="shared" si="1"/>
@@ -2308,14 +2343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:47" ht="25.15" customHeight="1">
-      <c r="C22" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+    <row r="22" spans="3:47" ht="21" customHeight="1">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
@@ -2365,18 +2398,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:47" ht="21" customHeight="1">
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+    <row r="23" spans="3:47" ht="25.2" customHeight="1">
+      <c r="C23" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="67"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -2431,7 +2466,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+      <c r="M24" s="60"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -2585,10 +2620,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:47">
-      <c r="AS27" s="7"/>
-      <c r="AT27" s="53"/>
-      <c r="AU27" s="55"/>
+    <row r="27" spans="3:47" ht="21" customHeight="1">
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="22"/>
+      <c r="AS27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT27" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="3:47">
       <c r="AS28" s="7"/>
@@ -2596,69 +2681,65 @@
       <c r="AU28" s="55"/>
     </row>
     <row r="29" spans="3:47">
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
       <c r="AS29" s="7"/>
       <c r="AT29" s="53"/>
       <c r="AU29" s="55"/>
     </row>
-    <row r="30" spans="3:47" ht="18.75">
-      <c r="C30" s="45" t="s">
+    <row r="30" spans="3:47">
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="53"/>
+      <c r="AU30" s="55"/>
+    </row>
+    <row r="31" spans="3:47" ht="18.600000000000001">
+      <c r="C31" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D31" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="AS30" s="51">
-        <f>SUM(AS8:AS26)</f>
-        <v>-720</v>
-      </c>
-      <c r="AT30" s="54">
-        <f>SUM(AT8:AT26)</f>
-        <v>0</v>
-      </c>
-      <c r="AU30" s="56">
-        <f>SUM(AU8:AU26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:47">
-      <c r="C31" s="42"/>
-      <c r="D31" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="AS31" s="51">
+        <f>SUM(AS8:AS27)</f>
+        <v>42</v>
+      </c>
+      <c r="AT31" s="54">
+        <f>SUM(AT8:AT27)</f>
+        <v>0</v>
+      </c>
+      <c r="AU31" s="56">
+        <f>SUM(AU8:AU27)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="3:47">
       <c r="C32" s="42"/>
-      <c r="D32" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="D32" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="42"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
+      <c r="D33" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12">
       <c r="C34" s="42"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="41"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2673,9 +2754,9 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12">
-      <c r="C36" s="50"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="37"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="41"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2692,34 +2773,43 @@
     </row>
     <row r="38" spans="3:12">
       <c r="C38" s="50"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="37"/>
-      <c r="F38" s="47"/>
+      <c r="F38" s="41"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12">
-      <c r="C39" s="43"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="44"/>
+      <c r="C39" s="50"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="47"/>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" s="43"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="AI3:AL3"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E8:E26">
+  <conditionalFormatting sqref="E8:E27">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2733,12 +2823,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:AP11 I13:V26 Y13:AD26 AG13:AL26 AO13:AP26 H8:AP8">
+  <conditionalFormatting sqref="I9:AP11 I13:V27 Y13:AD27 AG13:AL27 AO13:AP27 H8:AP8">
     <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(H$5&gt;=$F8,H$5&lt;=$G8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:AP26 AQ8:AQ26 H8:AP8 I5:AQ7">
+  <conditionalFormatting sqref="I9:AP27 AQ8:AQ27 H8:AP8 I5:AQ7">
     <cfRule type="expression" dxfId="1" priority="13">
       <formula>AND(H$5&lt;=TODAY(), (I$5-7)&lt;=TODAY(),I$5&gt;=TODAY())</formula>
     </cfRule>
@@ -2767,7 +2857,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E8:E26</xm:sqref>
+          <xm:sqref>E8:E27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/fattibilità/gpn_gantt.xlsx
+++ b/docs/fattibilità/gpn_gantt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive - ISTITUTO COMPRENSIVO VERTOVA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D1AAE-1B02-4D47-BC7E-B34306CD206E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="task_progress" localSheetId="0">Sheet1!$E1</definedName>
     <definedName name="task_start" localSheetId="0">Sheet1!$F1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>TASK</t>
   </si>
@@ -131,27 +132,18 @@
   </si>
   <si>
     <t>Scambio Schemi Progetto GPN</t>
-  </si>
-  <si>
-    <t>creazione AI</t>
-  </si>
-  <si>
-    <t>.js</t>
-  </si>
-  <si>
-    <t>PG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmmmm;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-410]"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,12 +213,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -465,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,37 +607,36 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1034,103 +1019,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AU40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:AU39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="91" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="6.09765625" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="5.59765625" style="1" customWidth="1"/>
-    <col min="10" max="43" width="6.69921875" style="1" customWidth="1"/>
-    <col min="45" max="49" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="1" customWidth="1"/>
+    <col min="10" max="43" width="6.75" style="1" customWidth="1"/>
+    <col min="45" max="49" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:47" ht="27" customHeight="1">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="3:47">
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="62"/>
       <c r="H3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="61" t="str">
+      <c r="I3" s="63" t="str">
         <f>TEXT(I5,"MMM")</f>
         <v>ott</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="61" t="str">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="63" t="str">
         <f>TEXT(M5,"MMM")</f>
         <v>nov</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="61" t="str">
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="63" t="str">
         <f>TEXT(Q5,"MMM")</f>
         <v>dic</v>
       </c>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="61" t="str">
+      <c r="V3" s="63" t="str">
         <f>TEXT(V5,"MMM")</f>
         <v>gen</v>
       </c>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="61" t="str">
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="63" t="str">
         <f>TEXT(Z5,"MMM")</f>
         <v>feb</v>
       </c>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="61" t="str">
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="63" t="str">
         <f>TEXT(AD5,"MMM")</f>
         <v>mar</v>
       </c>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="61" t="str">
+      <c r="AI3" s="63" t="str">
         <f>TEXT(AI5,"MMM")</f>
         <v>apr</v>
       </c>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="61" t="str">
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="63" t="str">
         <f>TEXT(AM5,"MMM")</f>
         <v>mag</v>
       </c>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="63"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="65"/>
       <c r="AQ3" s="5" t="str">
         <f>TEXT(AQ5,"MMM")</f>
         <v>giu</v>
@@ -1421,7 +1406,7 @@
       <c r="AT6" s="53"/>
       <c r="AU6" s="55"/>
     </row>
-    <row r="7" spans="3:47" ht="25.2" customHeight="1">
+    <row r="7" spans="3:47" ht="25.15" customHeight="1">
       <c r="C7" s="33" t="s">
         <v>30</v>
       </c>
@@ -1522,15 +1507,15 @@
       <c r="AP8" s="24"/>
       <c r="AQ8" s="22"/>
       <c r="AS8" s="7">
-        <f t="shared" ref="AS8:AS27" si="0">INT((G8-F8)/7)</f>
+        <f t="shared" ref="AS8:AS26" si="0">INT((G8-F8)/7)</f>
         <v>1</v>
       </c>
       <c r="AT8" s="53">
-        <f>AS8*$D$37</f>
+        <f>AS8*$D$36</f>
         <v>0</v>
       </c>
       <c r="AU8" s="55">
-        <f>AT8*$D$38</f>
+        <f>AT8*$D$37</f>
         <v>0</v>
       </c>
     </row>
@@ -1542,13 +1527,13 @@
         <v>22</v>
       </c>
       <c r="E9" s="26">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F9" s="29">
         <v>45955</v>
       </c>
       <c r="G9" s="29">
-        <v>46060</v>
+        <v>45961</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="24"/>
@@ -1588,14 +1573,14 @@
       <c r="AQ9" s="22"/>
       <c r="AS9" s="7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="53">
-        <f t="shared" ref="AT9:AT27" si="1">AS9*$D$37</f>
+        <f t="shared" ref="AT9:AT26" si="1">AS9*$D$36</f>
         <v>0</v>
       </c>
       <c r="AU9" s="55">
-        <f t="shared" ref="AU9:AU27" si="2">AT9*$D$38</f>
+        <f t="shared" ref="AU9:AU26" si="2">AT9*$D$37</f>
         <v>0</v>
       </c>
     </row>
@@ -1615,7 +1600,7 @@
       <c r="G10" s="29">
         <v>45972</v>
       </c>
-      <c r="H10" s="69"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -1678,7 +1663,7 @@
         <v>45936</v>
       </c>
       <c r="G11" s="29">
-        <v>45971</v>
+        <v>40857</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" s="24"/>
@@ -1718,7 +1703,7 @@
       <c r="AQ11" s="22"/>
       <c r="AS11" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-726</v>
       </c>
       <c r="AT11" s="53">
         <f t="shared" si="1"/>
@@ -1729,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:47" ht="25.2" customHeight="1">
+    <row r="12" spans="3:47" ht="25.15" customHeight="1">
       <c r="C12" s="34" t="s">
         <v>15</v>
       </c>
@@ -1794,13 +1779,13 @@
         <v>24</v>
       </c>
       <c r="E13" s="57">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F13" s="29">
         <v>45945</v>
       </c>
       <c r="G13" s="29">
-        <v>46060</v>
+        <v>46011</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
@@ -1840,7 +1825,7 @@
       <c r="AQ13" s="22"/>
       <c r="AS13" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AT13" s="53">
         <f t="shared" si="1"/>
@@ -1858,7 +1843,7 @@
       <c r="D14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="66">
         <v>0.7</v>
       </c>
       <c r="F14" s="29">
@@ -1927,10 +1912,10 @@
         <v>0.65</v>
       </c>
       <c r="F15" s="29">
+        <v>45978</v>
+      </c>
+      <c r="G15" s="29">
         <v>45953</v>
-      </c>
-      <c r="G15" s="29">
-        <v>45978</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
@@ -1970,7 +1955,7 @@
       <c r="AQ15" s="22"/>
       <c r="AS15" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="AT15" s="53">
         <f t="shared" si="1"/>
@@ -1982,21 +1967,11 @@
       </c>
     </row>
     <row r="16" spans="3:47" ht="21" customHeight="1">
-      <c r="C16" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="29">
-        <v>46055</v>
-      </c>
-      <c r="G16" s="29">
-        <v>46060</v>
-      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="23"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
@@ -2046,22 +2021,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:47" ht="21" customHeight="1">
-      <c r="C17" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="29">
-        <v>46048</v>
-      </c>
-      <c r="G17" s="29">
-        <v>46060</v>
-      </c>
+    <row r="17" spans="3:47" ht="25.15" customHeight="1">
+      <c r="C17" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -2100,10 +2067,10 @@
       <c r="AQ17" s="22"/>
       <c r="AS17" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="53">
-        <f>AS17*$D$37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU17" s="55">
@@ -2111,14 +2078,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:47" ht="25.2" customHeight="1">
-      <c r="C18" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+    <row r="18" spans="3:47" ht="21" customHeight="1">
+      <c r="C18" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="66">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="29">
+        <v>45971</v>
+      </c>
+      <c r="G18" s="29">
+        <v>45973</v>
+      </c>
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -2169,21 +2144,11 @@
       </c>
     </row>
     <row r="19" spans="3:47" ht="21" customHeight="1">
-      <c r="C19" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="59">
-        <v>0.4</v>
-      </c>
-      <c r="F19" s="29">
-        <v>46048</v>
-      </c>
-      <c r="G19" s="29">
-        <v>46055</v>
-      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
@@ -2222,7 +2187,7 @@
       <c r="AQ19" s="22"/>
       <c r="AS19" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="53">
         <f t="shared" si="1"/>
@@ -2343,12 +2308,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:47" ht="21" customHeight="1">
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+    <row r="22" spans="3:47" ht="25.15" customHeight="1">
+      <c r="C22" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
@@ -2398,20 +2365,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:47" ht="25.2" customHeight="1">
-      <c r="C23" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+    <row r="23" spans="3:47" ht="21" customHeight="1">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="M23" s="67"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -2466,7 +2431,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="60"/>
+      <c r="M24" s="24"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -2620,60 +2585,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:47" ht="21" customHeight="1">
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="24"/>
-      <c r="AM27" s="24"/>
-      <c r="AN27" s="24"/>
-      <c r="AO27" s="24"/>
-      <c r="AP27" s="24"/>
-      <c r="AQ27" s="22"/>
-      <c r="AS27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT27" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+    <row r="27" spans="3:47">
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="55"/>
     </row>
     <row r="28" spans="3:47">
       <c r="AS28" s="7"/>
@@ -2681,65 +2596,69 @@
       <c r="AU28" s="55"/>
     </row>
     <row r="29" spans="3:47">
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
       <c r="AS29" s="7"/>
       <c r="AT29" s="53"/>
       <c r="AU29" s="55"/>
     </row>
-    <row r="30" spans="3:47">
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="AS30" s="7"/>
-      <c r="AT30" s="53"/>
-      <c r="AU30" s="55"/>
-    </row>
-    <row r="31" spans="3:47" ht="18.600000000000001">
-      <c r="C31" s="45" t="s">
+    <row r="30" spans="3:47" ht="18.75">
+      <c r="C30" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D30" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
-      <c r="AS31" s="51">
-        <f>SUM(AS8:AS27)</f>
-        <v>42</v>
-      </c>
-      <c r="AT31" s="54">
-        <f>SUM(AT8:AT27)</f>
-        <v>0</v>
-      </c>
-      <c r="AU31" s="56">
-        <f>SUM(AU8:AU27)</f>
-        <v>0</v>
-      </c>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="AS30" s="51">
+        <f>SUM(AS8:AS26)</f>
+        <v>-720</v>
+      </c>
+      <c r="AT30" s="54">
+        <f>SUM(AT8:AT26)</f>
+        <v>0</v>
+      </c>
+      <c r="AU30" s="56">
+        <f>SUM(AU8:AU26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:47">
+      <c r="C31" s="42"/>
+      <c r="D31" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
     </row>
     <row r="32" spans="3:47">
       <c r="C32" s="42"/>
-      <c r="D32" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="65"/>
+      <c r="D32" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="42"/>
-      <c r="D33" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="65"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12">
       <c r="C34" s="42"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="65"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="41"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2754,9 +2673,9 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12">
-      <c r="C36" s="42"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="41"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2773,43 +2692,34 @@
     </row>
     <row r="38" spans="3:12">
       <c r="C38" s="50"/>
-      <c r="D38" s="46"/>
       <c r="E38" s="37"/>
-      <c r="F38" s="41"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="3:12">
-      <c r="C39" s="50"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="47"/>
-    </row>
-    <row r="40" spans="3:12">
-      <c r="C40" s="43"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="44"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
     <mergeCell ref="AI3:AL3"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E8:E27">
+  <conditionalFormatting sqref="E8:E26">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2823,12 +2733,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:AP11 I13:V27 Y13:AD27 AG13:AL27 AO13:AP27 H8:AP8">
+  <conditionalFormatting sqref="I9:AP11 I13:V26 Y13:AD26 AG13:AL26 AO13:AP26 H8:AP8">
     <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(H$5&gt;=$F8,H$5&lt;=$G8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:AP27 AQ8:AQ27 H8:AP8 I5:AQ7">
+  <conditionalFormatting sqref="I9:AP26 AQ8:AQ26 H8:AP8 I5:AQ7">
     <cfRule type="expression" dxfId="1" priority="13">
       <formula>AND(H$5&lt;=TODAY(), (I$5-7)&lt;=TODAY(),I$5&gt;=TODAY())</formula>
     </cfRule>
@@ -2857,7 +2767,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E8:E27</xm:sqref>
+          <xm:sqref>E8:E26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
